--- a/data/B100 data.xlsx
+++ b/data/B100 data.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1aae1e546ee3e7d6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1aae1e546ee3e7d6/Documents/GitHub/mesdntu.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC104805319A459A5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7271C721-E29F-4EC5-8C9C-84213A542B32}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104805319A459A5BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BBF57B1-6D5F-4026-95FA-AECB14EF303F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$2220</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -12004,7 +12007,7 @@
   <dimension ref="A1:R2220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R2220"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -107405,6 +107408,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R2220" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>